--- a/medicine/Mort/Cimetière_d'Alfortville/Cimetière_d'Alfortville.xlsx
+++ b/medicine/Mort/Cimetière_d'Alfortville/Cimetière_d'Alfortville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alfortville</t>
+          <t>Cimetière_d'Alfortville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière d'Alfortville est le cimetière municipal de la ville d'Alfortville dans la banlieue parisienne du Val-de-Marne. Il est connu pour abriter un certain nombre de tombes de personnes d'origine arménienne, cette communauté y étant importante depuis l'arrivée de ces personnes après le génocide arménien de 1915. Il se trouve rue Étienne-Dolet[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière d'Alfortville est le cimetière municipal de la ville d'Alfortville dans la banlieue parisienne du Val-de-Marne. Il est connu pour abriter un certain nombre de tombes de personnes d'origine arménienne, cette communauté y étant importante depuis l'arrivée de ces personnes après le génocide arménien de 1915. Il se trouve rue Étienne-Dolet.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alfortville</t>
+          <t>Cimetière_d'Alfortville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand cimetière a ouvert le 1er mai 1888[2], après que la commune d'Alfortville est devenue distincte de celle de Maisons-Alfort. Sa superficie est de 11644 mètres carrés[3]. La première tombe est celle de l'ouvrier mécanicien Michel Clâa (1855-1888), libre-penseur. L'enterrement se passe sans cérémonie religieuse. Sa tombe est le lieu de manifestations de libres-penseurs depuis cette époque[4].
-Lors du weekend de la Toussaint 2022, vingt-deux tombes sont vandalisées[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand cimetière a ouvert le 1er mai 1888, après que la commune d'Alfortville est devenue distincte de celle de Maisons-Alfort. Sa superficie est de 11644 mètres carrés. La première tombe est celle de l'ouvrier mécanicien Michel Clâa (1855-1888), libre-penseur. L'enterrement se passe sans cérémonie religieuse. Sa tombe est le lieu de manifestations de libres-penseurs depuis cette époque.
+Lors du weekend de la Toussaint 2022, vingt-deux tombes sont vandalisées,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alfortville</t>
+          <t>Cimetière_d'Alfortville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand cimetière plat et plutôt monotone est dominé par d'immenses pylônes électriques[2]. Il existe encore quelques parties anciennes avec des chapelles familiales. Certaines sépultures figurent à l'inventaire (tombe de la famille Miscot[7]; chapelle de la famille Delobre[8], avec  un ange au tympan, construite par Guiard en style Art nouveau; chapelle de la famille Falquet[9], construite par Sébille). Le cimetière comprend un carré israélite (7e division).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand cimetière plat et plutôt monotone est dominé par d'immenses pylônes électriques. Il existe encore quelques parties anciennes avec des chapelles familiales. Certaines sépultures figurent à l'inventaire (tombe de la famille Miscot; chapelle de la famille Delobre, avec  un ange au tympan, construite par Guiard en style Art nouveau; chapelle de la famille Falquet, construite par Sébille). Le cimetière comprend un carré israélite (7e division).
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Alfortville</t>
+          <t>Cimetière_d'Alfortville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suzy Platiel[10] (1930-2024), ethnolinguiste[11] et africaniste[12] au CNRS.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suzy Platiel (1930-2024), ethnolinguiste et africaniste au CNRS.
 Lucien Jeunesse (né Jennes, 1918-2008), animateur de radio (cénotaphe, ses cendres ayant été transférées ultérieurement à Landévant)
 Jean-Baptiste Preux (1836-1909), maire de la commune et architecte avec son fils Paul Preux (1865-1935), architecte
 			Chapelle Delobre.
